--- a/dat/xlsxs/dat1cal.xlsx
+++ b/dat/xlsxs/dat1cal.xlsx
@@ -45,26 +45,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3\%CuSO\textsubscript{5}(aq)</t>
+    <t>纯水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5\%CuSO\textsubscript{6}(aq)</t>
+    <t>0.3\%CuSO\textsubscript{4}(aq)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1\%CuSO\textsubscript{7}(aq)</t>
+    <t>0.5\%CuSO\textsubscript{4}(aq)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.05\%CuSO\textsubscript{9}(aq)</t>
-  </si>
-  <si>
-    <t>5\%CuSO\textsubscript{8}(aq)</t>
+    <t>1\%CuSO\textsubscript{4}(aq)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纯水</t>
+    <t>5\%CuSO\textsubscript{4}(aq)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05\%CuSO\textsubscript{4}(aq)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2695,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2747,7 +2748,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>39.4</v>
@@ -2771,7 +2772,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>18</v>
@@ -2795,7 +2796,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>10.5</v>
@@ -2841,7 +2842,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>669.5</v>
@@ -2858,7 +2859,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>72.8</v>
